--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_02_i.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_02_i.xlsx
@@ -56,7 +56,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Doctor, you’ve only just recovered, but you’ve already mastered all these skills.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Doctor, you've only just recovered, but you've already mastered all these skills.
 </t>
   </si>
   <si>
